--- a/config_ios/shoping_config.xlsx
+++ b/config_ios/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="2063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="2067">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8574,10 +8574,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_pt_01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_barrel_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8586,10 +8582,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_pt_02</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_barrel_4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8598,10 +8590,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_pt_03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_barrel_5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8610,26 +8598,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_pt_04</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_barrel_6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_pt_05</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_barrel_7</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_pt_06</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_bed_2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8638,10 +8614,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_dz_02</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gun_bed_3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8650,11 +8622,66 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_dz_03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_dz_04</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>道  具</t>
+  </si>
+  <si>
+    <t>sc_imgf_dj1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c_imgf_dj</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8879,7 +8906,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9155,6 +9182,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9435,8 +9465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9575,10 +9605,35 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+    <row r="5" spans="1:11" s="12" customFormat="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>2056</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11"/>
@@ -52914,8 +52969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -53928,7 +53983,7 @@
         <v>10000</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>2042</v>
+        <v>2062</v>
       </c>
       <c r="V22" s="24" t="s">
         <v>2023</v>
@@ -53945,7 +54000,7 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="18" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>455</v>
@@ -53970,7 +54025,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
@@ -53978,7 +54033,7 @@
         <v>20000</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>2045</v>
+        <v>2063</v>
       </c>
       <c r="V23" s="24" t="s">
         <v>2023</v>
@@ -53995,7 +54050,7 @@
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="18" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>2032</v>
@@ -54020,7 +54075,7 @@
         <v>3</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
@@ -54028,7 +54083,7 @@
         <v>50000</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>2048</v>
+        <v>2061</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>445</v>
@@ -54045,7 +54100,7 @@
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="18" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>2032</v>
@@ -54070,7 +54125,7 @@
         <v>4</v>
       </c>
       <c r="Q25" s="91" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
@@ -54078,7 +54133,7 @@
         <v>100000</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="V25" s="24" t="s">
         <v>2023</v>
@@ -54095,7 +54150,7 @@
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="18" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>2032</v>
@@ -54128,7 +54183,7 @@
         <v>150000</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>2053</v>
+        <v>2060</v>
       </c>
       <c r="V26" s="24" t="s">
         <v>2023</v>
@@ -54145,7 +54200,7 @@
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="18" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>455</v>
@@ -54178,7 +54233,7 @@
         <v>300000</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="V27" s="24" t="s">
         <v>2023</v>
@@ -54195,7 +54250,7 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="18" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>2032</v>
@@ -54220,7 +54275,7 @@
         <v>7</v>
       </c>
       <c r="Q28" s="91" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
@@ -54228,7 +54283,7 @@
         <v>20000</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>2058</v>
+        <v>2064</v>
       </c>
       <c r="V28" s="24" t="s">
         <v>2023</v>
@@ -54245,7 +54300,7 @@
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="18" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>455</v>
@@ -54270,7 +54325,7 @@
         <v>8</v>
       </c>
       <c r="Q29" s="91" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
@@ -54278,7 +54333,7 @@
         <v>50000</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="V29" s="24" t="s">
         <v>2023</v>
@@ -54328,7 +54383,7 @@
         <v>100000</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="V30" s="24" t="s">
         <v>2023</v>
